--- a/CSP/data/add_csp.xlsx
+++ b/CSP/data/add_csp.xlsx
@@ -83,7 +83,7 @@
     <t>*CSP类型</t>
   </si>
   <si>
-    <t>第三方CSP</t>
+    <t>集团CSP</t>
   </si>
   <si>
     <t>CSP状态</t>
@@ -372,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -455,17 +455,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,22 +469,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,9 +520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,14 +535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -559,24 +544,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +648,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,79 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,43 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,31 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +933,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -951,7 +975,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,25 +990,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,21 +1019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1034,148 +1034,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1613,7 +1613,7 @@
   <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87878787878788" defaultRowHeight="15.6"/>
@@ -7469,23 +7469,6 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度小于或等于20的文本。" promptTitle="提示：" prompt="请输入20字以内的文本" sqref="B3">
       <formula1>20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B4">
-      <formula1>"请选择,直客,代理商"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B5">
-      <formula1>"请选择,集团CSP,省公司CSP,其他CSP,第三方CSP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B6 D20">
-      <formula1>"全国,北京市,天津市,河北省,山西省,内蒙古自治区,辽宁省,吉林省,黑龙江省,上海市,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,广西壮族自治区,海南省,重庆市,四川省,贵州省,云南省,西藏自治区,陕西省,甘肃省,青海省,宁夏回族自治区,新疆维吾尔自治区,台湾省,香港特别行政区,澳门特别行政区,请选择"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="请输入10字以内的文本" sqref="B20">
-      <formula1>0</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="最多添加10个IP，以;号隔开" sqref="B10">
-      <formula1>0</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是内容不包括b的文本。" promptTitle="提示：" prompt="支持pdf/png/jpg/jpeg等格式" sqref="D13">
       <formula1>ISERROR(FIND("b",D13))</formula1>
     </dataValidation>
@@ -7497,12 +7480,26 @@
       <formula1>0</formula1>
       <formula2>150</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B4">
+      <formula1>"请选择,直客,代理商"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B6 D20">
+      <formula1>"全国,北京市,天津市,河北省,山西省,内蒙古自治区,辽宁省,吉林省,黑龙江省,上海市,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,广西壮族自治区,海南省,重庆市,四川省,贵州省,云南省,西藏自治区,陕西省,甘肃省,青海省,宁夏回族自治区,新疆维吾尔自治区,台湾省,香港特别行政区,澳门特别行政区,请选择"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B5">
+      <formula1>"请选择,集团CSP,省公司CSP,其他CSP,第三方CSP"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="请输入10字以内的文本" sqref="B20">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="最多添加10个IP，以;号隔开" sqref="B10">
+      <formula1>0</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
     <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和30之间的文本。" promptTitle="提示：" prompt="请输入30字以内的文本" sqref="B23 D23 B34 D34 B29:B30 D26:D29">
       <formula1>0</formula1>
       <formula2>30</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="D22">
-      <formula1>"请选择,是,否"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="between" allowBlank="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和25之间的文本。" promptTitle="提示：" sqref="D14">
       <formula1>0</formula1>
@@ -7511,6 +7508,9 @@
     <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和20之间的文本。" promptTitle="提示：" prompt="请输入20字以内的文本" sqref="B14 B17">
       <formula1>0</formula1>
       <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="D22">
+      <formula1>"请选择,是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/CSP/data/add_csp.xlsx
+++ b/CSP/data/add_csp.xlsx
@@ -374,8 +374,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -455,9 +455,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,8 +476,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -484,14 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -500,14 +507,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,9 +567,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,37 +582,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -583,14 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +642,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,31 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,13 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,61 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,30 +933,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -975,7 +951,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,21 +976,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,6 +997,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1029,153 +1014,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7469,31 +7469,28 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度小于或等于20的文本。" promptTitle="提示：" prompt="请输入20字以内的文本" sqref="B3">
       <formula1>20</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是内容不包括b的文本。" promptTitle="提示：" prompt="支持pdf/png/jpg/jpeg等格式" sqref="D13">
-      <formula1>ISERROR(FIND("b",D13))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B6 D20">
+      <formula1>"全国,北京市,天津市,河北省,山西省,内蒙古自治区,辽宁省,吉林省,黑龙江省,上海市,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,广西壮族自治区,海南省,重庆市,四川省,贵州省,云南省,西藏自治区,陕西省,甘肃省,青海省,宁夏回族自治区,新疆维吾尔自治区,台湾省,香港特别行政区,澳门特别行政区,请选择"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B4">
+      <formula1>"请选择,直客,代理商"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="请输入10字以内的文本" sqref="B20">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="最多添加10个IP，以;号隔开" sqref="B10">
+      <formula1>0</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B5">
+      <formula1>"请选择,集团CSP,省公司CSP,其他CSP,第三方CSP"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="between" allowBlank="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和20之间的文本。" promptTitle="提示：" prompt="10-20位，必须包含数字、大小写英文字母、特殊字符" sqref="B11:B12">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
     <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="请输入150字以内的文本" sqref="B13 B21:B22 D11:D12">
-      <formula1>0</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B4">
-      <formula1>"请选择,直客,代理商"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B6 D20">
-      <formula1>"全国,北京市,天津市,河北省,山西省,内蒙古自治区,辽宁省,吉林省,黑龙江省,上海市,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,广西壮族自治区,海南省,重庆市,四川省,贵州省,云南省,西藏自治区,陕西省,甘肃省,青海省,宁夏回族自治区,新疆维吾尔自治区,台湾省,香港特别行政区,澳门特别行政区,请选择"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="B5">
-      <formula1>"请选择,集团CSP,省公司CSP,其他CSP,第三方CSP"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="请输入10字以内的文本" sqref="B20">
-      <formula1>0</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和150之间的文本。" promptTitle="提示：" prompt="最多添加10个IP，以;号隔开" sqref="B10">
       <formula1>0</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -7508,6 +7505,9 @@
     <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是长度介于0和20之间的文本。" promptTitle="提示：" prompt="请输入20字以内的文本" sqref="B14 B17">
       <formula1>0</formula1>
       <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="错误" error="你输入的不是内容不包括b的文本。" promptTitle="提示：" prompt="支持pdf/png/jpg/jpeg等格式" sqref="D13">
+      <formula1>ISERROR(FIND("b",D13))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="你选择的不是下拉列表中的选项。" sqref="D22">
       <formula1>"请选择,是,否"</formula1>
